--- a/output/3_Regression/h19_test/h19table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h19table_rmse.xlsx
@@ -438,10 +438,10 @@
         <v>3.793581971509743</v>
       </c>
       <c r="F2">
-        <v>5.571136475309066</v>
+        <v>5.553527153637592</v>
       </c>
       <c r="G2">
-        <v>1.03135295495308</v>
+        <v>0.0751432506309762</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>2.590970758655243</v>
       </c>
       <c r="F3">
-        <v>3.599583148920353</v>
+        <v>3.589434935983063</v>
       </c>
       <c r="G3">
-        <v>0.5799830289732635</v>
+        <v>0.7129499996563263</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>2.203299242466642</v>
       </c>
       <c r="F4">
-        <v>2.965578781813676</v>
+        <v>2.957879096443071</v>
       </c>
       <c r="G4">
-        <v>0.5229743288442474</v>
+        <v>0.8016453050802856</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,10 +507,10 @@
         <v>2.001433132657633</v>
       </c>
       <c r="F5">
-        <v>2.629692174354178</v>
+        <v>2.623299452938296</v>
       </c>
       <c r="G5">
-        <v>0.8770678375055431</v>
+        <v>0.8165584892490486</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -530,10 +530,10 @@
         <v>1.862222112720364</v>
       </c>
       <c r="F6">
-        <v>2.414212377800566</v>
+        <v>2.408661210767038</v>
       </c>
       <c r="G6">
-        <v>0.9609474479878052</v>
+        <v>0.8729779712370209</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -553,10 +553,10 @@
         <v>1.753540469279248</v>
       </c>
       <c r="F7">
-        <v>2.25965899448438</v>
+        <v>2.254712434528919</v>
       </c>
       <c r="G7">
-        <v>0.9435919817060835</v>
+        <v>0.7707281978553309</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,10 +576,10 @@
         <v>1.677361904001189</v>
       </c>
       <c r="F8">
-        <v>2.13989173115062</v>
+        <v>2.135413823301527</v>
       </c>
       <c r="G8">
-        <v>0.9681919977453805</v>
+        <v>0.753166928209019</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -599,10 +599,10 @@
         <v>1.619161056998734</v>
       </c>
       <c r="F9">
-        <v>2.042390588728434</v>
+        <v>2.038294108681403</v>
       </c>
       <c r="G9">
-        <v>1.045630432263654</v>
+        <v>1.217385633002738</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -622,10 +622,10 @@
         <v>1.548009630887378</v>
       </c>
       <c r="F10">
-        <v>1.930373817001023</v>
+        <v>1.926463559627751</v>
       </c>
       <c r="G10">
-        <v>0.9939995007755831</v>
+        <v>1.263763191903075</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -645,10 +645,10 @@
         <v>1.480586291628182</v>
       </c>
       <c r="F11">
-        <v>1.84085885932014</v>
+        <v>1.837130409925583</v>
       </c>
       <c r="G11">
-        <v>1.017102235369159</v>
+        <v>1.254142422821636</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -668,10 +668,10 @@
         <v>1.422572422475828</v>
       </c>
       <c r="F12">
-        <v>1.768274780197334</v>
+        <v>1.764717338120441</v>
       </c>
       <c r="G12">
-        <v>1.134443478297295</v>
+        <v>1.411117600004863</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -691,10 +691,10 @@
         <v>1.368647192220712</v>
       </c>
       <c r="F13">
-        <v>1.69030136457067</v>
+        <v>1.686824297327338</v>
       </c>
       <c r="G13">
-        <v>1.29315366823756</v>
+        <v>1.562923362896475</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h19table_rmse.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Benchmark</t>
-  </si>
-  <si>
-    <t>ARIMA</t>
   </si>
   <si>
     <t>VAR</t>
@@ -392,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -417,284 +414,245 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.005545234702531321</v>
+        <v>0.006526693683909901</v>
       </c>
       <c r="C2">
-        <v>0.02631829626345961</v>
+        <v>6.378054701764283</v>
       </c>
       <c r="D2">
-        <v>7.714814007057873</v>
+        <v>8.233111565861066</v>
       </c>
       <c r="E2">
-        <v>3.793581971509743</v>
+        <v>8.233111565861066</v>
       </c>
       <c r="F2">
-        <v>5.553527153637592</v>
-      </c>
-      <c r="G2">
-        <v>0.0751432506309762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2.008480561244296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.009574986931207483</v>
+        <v>0.01179346033768006</v>
       </c>
       <c r="C3">
-        <v>0.08430097031837866</v>
+        <v>3.258035284525972</v>
       </c>
       <c r="D3">
-        <v>4.120624028601202</v>
+        <v>4.944512823961614</v>
       </c>
       <c r="E3">
-        <v>2.590970758655243</v>
+        <v>4.944512823961614</v>
       </c>
       <c r="F3">
-        <v>3.589434935983063</v>
-      </c>
-      <c r="G3">
-        <v>0.7129499996563263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.97566866592281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.01257941173603084</v>
+        <v>0.01674551489809242</v>
       </c>
       <c r="C4">
-        <v>0.3074186934776789</v>
+        <v>2.082898159320801</v>
       </c>
       <c r="D4">
-        <v>2.881214425162506</v>
+        <v>3.750475556501229</v>
       </c>
       <c r="E4">
-        <v>2.203299242466642</v>
+        <v>3.750475556501229</v>
       </c>
       <c r="F4">
-        <v>2.957879096443071</v>
-      </c>
-      <c r="G4">
-        <v>0.8016453050802856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1.597731004449534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.0151141178910455</v>
+        <v>0.02080512022344701</v>
       </c>
       <c r="C5">
-        <v>0.5237460017980397</v>
+        <v>1.519473954184208</v>
       </c>
       <c r="D5">
-        <v>2.188597497209746</v>
+        <v>3.203520115197268</v>
       </c>
       <c r="E5">
-        <v>2.001433132657633</v>
+        <v>3.203520115197268</v>
       </c>
       <c r="F5">
-        <v>2.623299452938296</v>
-      </c>
-      <c r="G5">
-        <v>0.8165584892490486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1.350398383856856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.01736992074061051</v>
+        <v>0.02375080423187773</v>
       </c>
       <c r="C6">
-        <v>0.7254360313027824</v>
+        <v>1.218174636262694</v>
       </c>
       <c r="D6">
-        <v>1.734810924741808</v>
+        <v>2.929306647950808</v>
       </c>
       <c r="E6">
-        <v>1.862222112720364</v>
+        <v>2.929306647950808</v>
       </c>
       <c r="F6">
-        <v>2.408661210767038</v>
-      </c>
-      <c r="G6">
-        <v>0.8729779712370209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1.18212395091265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.01945709642983277</v>
+        <v>0.02584621984832808</v>
       </c>
       <c r="C7">
-        <v>0.9038660943505633</v>
+        <v>1.038224456851067</v>
       </c>
       <c r="D7">
-        <v>1.418002210665094</v>
+        <v>2.775316199199936</v>
       </c>
       <c r="E7">
-        <v>1.753540469279248</v>
+        <v>2.775316199199936</v>
       </c>
       <c r="F7">
-        <v>2.254712434528919</v>
-      </c>
-      <c r="G7">
-        <v>0.7707281978553309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1.086232616465971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.02145467091967296</v>
+        <v>0.02729997275337278</v>
       </c>
       <c r="C8">
-        <v>1.052381340159131</v>
+        <v>0.9262745486825421</v>
       </c>
       <c r="D8">
-        <v>1.190841974021307</v>
+        <v>2.684355238843627</v>
       </c>
       <c r="E8">
-        <v>1.677361904001189</v>
+        <v>2.684355238843627</v>
       </c>
       <c r="F8">
-        <v>2.135413823301527</v>
-      </c>
-      <c r="G8">
-        <v>0.753166928209019</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1.058128137401284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.02340910900324326</v>
+        <v>0.02821038422884362</v>
       </c>
       <c r="C9">
-        <v>1.16803628604243</v>
+        <v>0.8628587641803288</v>
       </c>
       <c r="D9">
-        <v>1.026364492329462</v>
+        <v>2.634024779576968</v>
       </c>
       <c r="E9">
-        <v>1.619161056998734</v>
+        <v>2.634024779576968</v>
       </c>
       <c r="F9">
-        <v>2.038294108681403</v>
-      </c>
-      <c r="G9">
-        <v>1.217385633002738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1.047711098358883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.02534082182444315</v>
+        <v>0.02886484179346041</v>
       </c>
       <c r="C10">
-        <v>1.251127734991477</v>
+        <v>0.8297562890402318</v>
       </c>
       <c r="D10">
-        <v>0.9070286662493828</v>
+        <v>2.600480884497316</v>
       </c>
       <c r="E10">
-        <v>1.548009630887378</v>
+        <v>2.600480884497316</v>
       </c>
       <c r="F10">
-        <v>1.926463559627751</v>
-      </c>
-      <c r="G10">
-        <v>1.263763191903075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1.05363462663222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.02724883566799494</v>
+        <v>0.02955778672463</v>
       </c>
       <c r="C11">
-        <v>1.304510951678597</v>
+        <v>0.8084708324844392</v>
       </c>
       <c r="D11">
-        <v>0.8209755455111243</v>
+        <v>2.565398472782275</v>
       </c>
       <c r="E11">
-        <v>1.480586291628182</v>
+        <v>2.565398472782275</v>
       </c>
       <c r="F11">
-        <v>1.837130409925583</v>
-      </c>
-      <c r="G11">
-        <v>1.254142422821636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1.098738295525207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.02911837990010184</v>
+        <v>0.03054106644378139</v>
       </c>
       <c r="C12">
-        <v>1.332471503761922</v>
+        <v>0.7813918677962074</v>
       </c>
       <c r="D12">
-        <v>0.7600001712255172</v>
+        <v>2.515718198145118</v>
       </c>
       <c r="E12">
-        <v>1.422572422475828</v>
+        <v>2.515718198145118</v>
       </c>
       <c r="F12">
-        <v>1.764717338120441</v>
-      </c>
-      <c r="G12">
-        <v>1.411117600004863</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>1.113040005479324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.03093413233147058</v>
+        <v>0.03186882465296233</v>
       </c>
       <c r="C13">
-        <v>1.339296743704415</v>
+        <v>0.7435982275701611</v>
       </c>
       <c r="D13">
-        <v>0.7181555337225374</v>
+        <v>2.451360259345468</v>
       </c>
       <c r="E13">
-        <v>1.368647192220712</v>
+        <v>2.451360259345468</v>
       </c>
       <c r="F13">
-        <v>1.686824297327338</v>
-      </c>
-      <c r="G13">
-        <v>1.562923362896475</v>
+        <v>1.101035772871606</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h19table_rmse.xlsx
@@ -426,13 +426,13 @@
         <v>6.378054701764283</v>
       </c>
       <c r="D2">
-        <v>8.233111565861066</v>
+        <v>6.022326028969973</v>
       </c>
       <c r="E2">
         <v>8.233111565861066</v>
       </c>
       <c r="F2">
-        <v>2.008480561244296</v>
+        <v>2.008480561244309</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,7 +446,7 @@
         <v>3.258035284525972</v>
       </c>
       <c r="D3">
-        <v>4.944512823961614</v>
+        <v>3.374636997828203</v>
       </c>
       <c r="E3">
         <v>4.944512823961614</v>
@@ -466,7 +466,7 @@
         <v>2.082898159320801</v>
       </c>
       <c r="D4">
-        <v>3.750475556501229</v>
+        <v>2.913868962202096</v>
       </c>
       <c r="E4">
         <v>3.750475556501229</v>
@@ -486,7 +486,7 @@
         <v>1.519473954184208</v>
       </c>
       <c r="D5">
-        <v>3.203520115197268</v>
+        <v>2.66442211215766</v>
       </c>
       <c r="E5">
         <v>3.203520115197268</v>
@@ -506,7 +506,7 @@
         <v>1.218174636262694</v>
       </c>
       <c r="D6">
-        <v>2.929306647950808</v>
+        <v>2.312313788311346</v>
       </c>
       <c r="E6">
         <v>2.929306647950808</v>
@@ -526,13 +526,13 @@
         <v>1.038224456851067</v>
       </c>
       <c r="D7">
-        <v>2.775316199199936</v>
+        <v>1.988849138642887</v>
       </c>
       <c r="E7">
         <v>2.775316199199936</v>
       </c>
       <c r="F7">
-        <v>1.086232616465971</v>
+        <v>1.08623261646597</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -546,7 +546,7 @@
         <v>0.9262745486825421</v>
       </c>
       <c r="D8">
-        <v>2.684355238843627</v>
+        <v>1.760859091981209</v>
       </c>
       <c r="E8">
         <v>2.684355238843627</v>
@@ -566,13 +566,13 @@
         <v>0.8628587641803288</v>
       </c>
       <c r="D9">
-        <v>2.634024779576968</v>
+        <v>1.607827791743647</v>
       </c>
       <c r="E9">
         <v>2.634024779576968</v>
       </c>
       <c r="F9">
-        <v>1.047711098358883</v>
+        <v>1.047711098358882</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -586,7 +586,7 @@
         <v>0.8297562890402318</v>
       </c>
       <c r="D10">
-        <v>2.600480884497316</v>
+        <v>1.481504892395875</v>
       </c>
       <c r="E10">
         <v>2.600480884497316</v>
@@ -606,7 +606,7 @@
         <v>0.8084708324844392</v>
       </c>
       <c r="D11">
-        <v>2.565398472782275</v>
+        <v>1.396275884973723</v>
       </c>
       <c r="E11">
         <v>2.565398472782275</v>
@@ -626,7 +626,7 @@
         <v>0.7813918677962074</v>
       </c>
       <c r="D12">
-        <v>2.515718198145118</v>
+        <v>1.324461624257879</v>
       </c>
       <c r="E12">
         <v>2.515718198145118</v>
@@ -646,13 +646,13 @@
         <v>0.7435982275701611</v>
       </c>
       <c r="D13">
-        <v>2.451360259345468</v>
+        <v>1.243292092726252</v>
       </c>
       <c r="E13">
         <v>2.451360259345468</v>
       </c>
       <c r="F13">
-        <v>1.101035772871606</v>
+        <v>1.101035772871607</v>
       </c>
     </row>
   </sheetData>

--- a/output/3_Regression/h19_test/h19table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h19table_rmse.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/h19_test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_54CC0010DA30921FD2FE31D2F8F2D3C2545E0D3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE5620AB-16F1-4A6E-92E5-C262D7520960}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Benchmark</t>
   </si>
@@ -37,8 +43,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,24 +99,154 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +284,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +353,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,14 +529,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -415,92 +558,92 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.006526693683909901</v>
+        <v>6.526693683909901E-3</v>
       </c>
       <c r="C2">
-        <v>6.378054701764283</v>
+        <v>6.3780547017642828</v>
       </c>
       <c r="D2">
-        <v>6.022326028969973</v>
+        <v>6.0223260289699727</v>
       </c>
       <c r="E2">
-        <v>8.233111565861066</v>
+        <v>8.2331115658610656</v>
       </c>
       <c r="F2">
-        <v>2.008480561244309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2.008480561244296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.01179346033768006</v>
+        <v>1.179346033768006E-2</v>
       </c>
       <c r="C3">
-        <v>3.258035284525972</v>
+        <v>3.2580352845259721</v>
       </c>
       <c r="D3">
-        <v>3.374636997828203</v>
+        <v>3.3746369978282029</v>
       </c>
       <c r="E3">
-        <v>4.944512823961614</v>
+        <v>4.9445128239616141</v>
       </c>
       <c r="F3">
-        <v>1.97566866592281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1.975668665922808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.01674551489809242</v>
+        <v>1.6745514898092419E-2</v>
       </c>
       <c r="C4">
-        <v>2.082898159320801</v>
+        <v>2.0828981593208011</v>
       </c>
       <c r="D4">
-        <v>2.913868962202096</v>
+        <v>2.9138689622020961</v>
       </c>
       <c r="E4">
-        <v>3.750475556501229</v>
+        <v>3.7504755565012289</v>
       </c>
       <c r="F4">
-        <v>1.597731004449534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1.597731004449533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.02080512022344701</v>
+        <v>2.0805120223447011E-2</v>
       </c>
       <c r="C5">
-        <v>1.519473954184208</v>
+        <v>1.5194739541842079</v>
       </c>
       <c r="D5">
-        <v>2.66442211215766</v>
+        <v>2.6644221121576601</v>
       </c>
       <c r="E5">
-        <v>3.203520115197268</v>
+        <v>3.2035201151972679</v>
       </c>
       <c r="F5">
-        <v>1.350398383856856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1.3503983838568561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.02375080423187773</v>
+        <v>2.3750804231877729E-2</v>
       </c>
       <c r="C6">
         <v>1.218174636262694</v>
@@ -509,18 +652,18 @@
         <v>2.312313788311346</v>
       </c>
       <c r="E6">
-        <v>2.929306647950808</v>
+        <v>2.9293066479508081</v>
       </c>
       <c r="F6">
         <v>1.18212395091265</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.02584621984832808</v>
+        <v>2.5846219848328082E-2</v>
       </c>
       <c r="C7">
         <v>1.038224456851067</v>
@@ -529,41 +672,41 @@
         <v>1.988849138642887</v>
       </c>
       <c r="E7">
-        <v>2.775316199199936</v>
+        <v>2.7753161991999362</v>
       </c>
       <c r="F7">
-        <v>1.08623261646597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1.0862326164659699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.02729997275337278</v>
+        <v>2.729997275337278E-2</v>
       </c>
       <c r="C8">
-        <v>0.9262745486825421</v>
+        <v>0.92627454868254211</v>
       </c>
       <c r="D8">
         <v>1.760859091981209</v>
       </c>
       <c r="E8">
-        <v>2.684355238843627</v>
+        <v>2.6843552388436271</v>
       </c>
       <c r="F8">
-        <v>1.058128137401284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1.0581281374012841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.02821038422884362</v>
+        <v>2.8210384228843619E-2</v>
       </c>
       <c r="C9">
-        <v>0.8628587641803288</v>
+        <v>0.86285876418032881</v>
       </c>
       <c r="D9">
         <v>1.607827791743647</v>
@@ -572,90 +715,372 @@
         <v>2.634024779576968</v>
       </c>
       <c r="F9">
-        <v>1.047711098358882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1.0477110983588831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.02886484179346041</v>
+        <v>2.8864841793460411E-2</v>
       </c>
       <c r="C10">
         <v>0.8297562890402318</v>
       </c>
       <c r="D10">
-        <v>1.481504892395875</v>
+        <v>1.4815048923958749</v>
       </c>
       <c r="E10">
         <v>2.600480884497316</v>
       </c>
       <c r="F10">
-        <v>1.05363462663222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1.0536346266322201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.02955778672463</v>
+        <v>2.9557786724630001E-2</v>
       </c>
       <c r="C11">
-        <v>0.8084708324844392</v>
+        <v>0.80847083248443918</v>
       </c>
       <c r="D11">
-        <v>1.396275884973723</v>
+        <v>1.3962758849737229</v>
       </c>
       <c r="E11">
-        <v>2.565398472782275</v>
+        <v>2.5653984727822752</v>
       </c>
       <c r="F11">
         <v>1.098738295525207</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.03054106644378139</v>
+        <v>3.0541066443781389E-2</v>
       </c>
       <c r="C12">
         <v>0.7813918677962074</v>
       </c>
       <c r="D12">
-        <v>1.324461624257879</v>
+        <v>1.3244616242578791</v>
       </c>
       <c r="E12">
-        <v>2.515718198145118</v>
+        <v>2.5157181981451182</v>
       </c>
       <c r="F12">
-        <v>1.113040005479324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1.113040005479323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.03186882465296233</v>
+        <v>3.1868824652962327E-2</v>
       </c>
       <c r="C13">
-        <v>0.7435982275701611</v>
+        <v>0.74359822757016114</v>
       </c>
       <c r="D13">
-        <v>1.243292092726252</v>
+        <v>1.2432920927262521</v>
       </c>
       <c r="E13">
         <v>2.451360259345468</v>
       </c>
       <c r="F13">
-        <v>1.101035772871607</v>
+        <v>1.101035772871606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1">
+        <v>11</v>
+      </c>
+      <c r="M16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6.526693683909901E-3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.179346033768006E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.6745514898092419E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.0805120223447011E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.3750804231877729E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.5846219848328082E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2.729997275337278E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2.8210384228843619E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.8864841793460411E-2</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2.9557786724630001E-2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3.0541066443781389E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3.1868824652962327E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6.3780547017642828</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.2580352845259721</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.0828981593208011</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.5194739541842079</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.218174636262694</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.038224456851067</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.92627454868254211</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.86285876418032881</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.8297562890402318</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.80847083248443918</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.7813918677962074</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.74359822757016114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6.0223260289699727</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.3746369978282029</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.9138689622020961</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.6644221121576601</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.31231378831135</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.988849138642887</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.760859091981209</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.607827791743647</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1.4815048923958749</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.3962758849737229</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.3244616242578791</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.2432920927262501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8.2331115658610656</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.9445128239616141</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.7504755565012289</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3.2035201151972679</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.9293066479508081</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2.7753161991999362</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2.6843552388436271</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2.634024779576968</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2.600480884497316</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.5653984727822752</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2.5157181981451182</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2.451360259345468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.008480561244296</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4.9445128239616141</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.597731004449533</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.3503983838568601</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.18212395091265</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.0862326164659699</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1.0581281374012841</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.0477110983588831</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1.0536346266322201</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.098738295525207</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.113040005479323</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1.101035772871606</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B18:B21">
+    <cfRule type="top10" dxfId="11" priority="12" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C21">
+    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D21">
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E21">
+    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F21">
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G21">
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H21">
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I21">
+    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J21">
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K21">
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L21">
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M21">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/3_Regression/h19_test/h19table_rmse.xlsx
+++ b/output/3_Regression/h19_test/h19table_rmse.xlsx
@@ -432,7 +432,7 @@
         <v>8.187624761629799</v>
       </c>
       <c r="F2">
-        <v>1.607189074992313</v>
+        <v>1.607189074992309</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -452,7 +452,7 @@
         <v>4.919412170134235</v>
       </c>
       <c r="F3">
-        <v>2.111889708762464</v>
+        <v>2.11188970876246</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -472,7 +472,7 @@
         <v>3.732858464659921</v>
       </c>
       <c r="F4">
-        <v>1.879100603739707</v>
+        <v>1.879100603739706</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -492,7 +492,7 @@
         <v>3.189375643753934</v>
       </c>
       <c r="F5">
-        <v>1.602718306887317</v>
+        <v>1.602718306887316</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -532,7 +532,7 @@
         <v>2.763943354153299</v>
       </c>
       <c r="F7">
-        <v>1.21792243083509</v>
+        <v>1.217922430835089</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -612,7 +612,7 @@
         <v>2.555431377014405</v>
       </c>
       <c r="F11">
-        <v>1.134792018184441</v>
+        <v>1.13479201818444</v>
       </c>
     </row>
     <row r="12" spans="1:6">
